--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.426422666666666</v>
+        <v>2.775841999999999</v>
       </c>
       <c r="H2">
-        <v>25.279268</v>
+        <v>8.327525999999999</v>
       </c>
       <c r="I2">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="J2">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>948.0853966523518</v>
+        <v>169.4418546075327</v>
       </c>
       <c r="R2">
-        <v>8532.768569871167</v>
+        <v>1524.976691467794</v>
       </c>
       <c r="S2">
-        <v>0.03772369852637737</v>
+        <v>0.01276748587007356</v>
       </c>
       <c r="T2">
-        <v>0.03772369852637737</v>
+        <v>0.01276748587007356</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.426422666666666</v>
+        <v>2.775841999999999</v>
       </c>
       <c r="H3">
-        <v>25.279268</v>
+        <v>8.327525999999999</v>
       </c>
       <c r="I3">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="J3">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>895.8506260969625</v>
+        <v>295.1121599303719</v>
       </c>
       <c r="R3">
-        <v>8062.655634872664</v>
+        <v>2656.009439373348</v>
       </c>
       <c r="S3">
-        <v>0.03564531113217879</v>
+        <v>0.02223677461938268</v>
       </c>
       <c r="T3">
-        <v>0.0356453111321788</v>
+        <v>0.02223677461938268</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.426422666666666</v>
+        <v>2.775841999999999</v>
       </c>
       <c r="H4">
-        <v>25.279268</v>
+        <v>8.327525999999999</v>
       </c>
       <c r="I4">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="J4">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>1050.704590844987</v>
+        <v>364.5746728406585</v>
       </c>
       <c r="R4">
-        <v>9456.341317604887</v>
+        <v>3281.172055565927</v>
       </c>
       <c r="S4">
-        <v>0.04180684921977662</v>
+        <v>0.02747079223643525</v>
       </c>
       <c r="T4">
-        <v>0.04180684921977663</v>
+        <v>0.02747079223643526</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>35.361361</v>
       </c>
       <c r="I5">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="J5">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>1326.208890615504</v>
+        <v>719.5047591909622</v>
       </c>
       <c r="R5">
-        <v>11935.88001553954</v>
+        <v>6475.54283271866</v>
       </c>
       <c r="S5">
-        <v>0.0527689853142266</v>
+        <v>0.05421486248305564</v>
       </c>
       <c r="T5">
-        <v>0.0527689853142266</v>
+        <v>0.05421486248305564</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>35.361361</v>
       </c>
       <c r="I6">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="J6">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>1253.141403916075</v>
@@ -818,10 +818,10 @@
         <v>11278.27263524468</v>
       </c>
       <c r="S6">
-        <v>0.04986167775515863</v>
+        <v>0.09442451633193684</v>
       </c>
       <c r="T6">
-        <v>0.04986167775515864</v>
+        <v>0.09442451633193685</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>35.361361</v>
       </c>
       <c r="I7">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="J7">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>1469.755545976525</v>
+        <v>1548.10163520059</v>
       </c>
       <c r="R7">
-        <v>13227.79991378873</v>
+        <v>13932.91471680531</v>
       </c>
       <c r="S7">
-        <v>0.05848061294864589</v>
+        <v>0.1166498430900828</v>
       </c>
       <c r="T7">
-        <v>0.05848061294864591</v>
+        <v>0.1166498430900828</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.94781866666667</v>
+        <v>29.86824466666667</v>
       </c>
       <c r="H8">
-        <v>158.843456</v>
+        <v>89.60473400000001</v>
       </c>
       <c r="I8">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="J8">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>5957.338677187584</v>
+        <v>1823.20563281035</v>
       </c>
       <c r="R8">
-        <v>53616.04809468825</v>
+        <v>16408.85069529315</v>
       </c>
       <c r="S8">
-        <v>0.2370386138962524</v>
+        <v>0.1373789977043242</v>
       </c>
       <c r="T8">
-        <v>0.2370386138962524</v>
+        <v>0.1373789977043242</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.94781866666667</v>
+        <v>29.86824466666667</v>
       </c>
       <c r="H9">
-        <v>158.843456</v>
+        <v>89.60473400000001</v>
       </c>
       <c r="I9">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="J9">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>5629.119067411499</v>
+        <v>3175.426482094015</v>
       </c>
       <c r="R9">
-        <v>50662.07160670349</v>
+        <v>28578.83833884613</v>
       </c>
       <c r="S9">
-        <v>0.2239789700568289</v>
+        <v>0.2392691748771168</v>
       </c>
       <c r="T9">
-        <v>0.223978970056829</v>
+        <v>0.2392691748771168</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.94781866666667</v>
+        <v>29.86824466666667</v>
       </c>
       <c r="H10">
-        <v>158.843456</v>
+        <v>89.60473400000001</v>
       </c>
       <c r="I10">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="J10">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>6602.151155835834</v>
+        <v>3922.847744098817</v>
       </c>
       <c r="R10">
-        <v>59419.3604025225</v>
+        <v>35305.62969688935</v>
       </c>
       <c r="S10">
-        <v>0.2626952811505548</v>
+        <v>0.2955875527875922</v>
       </c>
       <c r="T10">
-        <v>0.2626952811505548</v>
+        <v>0.2955875527875923</v>
       </c>
     </row>
   </sheetData>
